--- a/nr-publish/ig/ValueSet-TLSVCategory.xlsx
+++ b/nr-publish/ig/ValueSet-TLSVCategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-ballot</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T18:53:12+00:00</t>
+    <t>2024-09-22T18:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
